--- a/biology/Botanique/Jacques_Denys_Choisy/Jacques_Denys_Choisy.xlsx
+++ b/biology/Botanique/Jacques_Denys_Choisy/Jacques_Denys_Choisy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Denys (Denis) Choisy (5 avril 1799, Jussy – 26 novembre 1859, Genève) est un ecclésiastique protestant et botaniste suisse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Denys (Denis) Choisy (5 avril 1799, Jussy – 26 novembre 1859, Genève) est un ecclésiastique protestant et botaniste suisse.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie la théologie, le droit, les sciences humaines et les sciences à l'Académie de Genève. En 1821, il est ordonné pasteur et part l'année suivante à Paris pour y poursuivre ses études. Lors de son séjour à Paris, il est accepté comme membre de la Société d'histoire naturelle. À son retour à Genève en 1824, il est nommé à la chaire de philosophie rationnelle à l'Académie, poste qu'il occupe jusqu'en 1847[2]
-Pendant ses études à Genève, il subit l'influence d'Augustin Pyrame de Candolle et, ce faisant, développa une passion durable pour la botanique[2]. Il fut l'un des principaux contributeurs à la publication de Candolle Prodromus systematis naturalis regni vegetabilis, dont il est l’auteur des chapitres concernant les familles des Marcgraviaceae, Convolvulaceae, Hydroleaceae, Scrophulariaceae, Selaginaceae, Nyctaginaceae , Hypericineae et Guttiferae[3].
-Le genre botanique Choisya (famille des Rutaceae) est nommé en son honneur[4].
-En tant que théologien et philosophe, il publie des ouvrages tels que Des doctrines exclusives en philosophie rationnelle (1828) et Les lois morales: Fragment d'un cours de philosophie morale (1836)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie la théologie, le droit, les sciences humaines et les sciences à l'Académie de Genève. En 1821, il est ordonné pasteur et part l'année suivante à Paris pour y poursuivre ses études. Lors de son séjour à Paris, il est accepté comme membre de la Société d'histoire naturelle. À son retour à Genève en 1824, il est nommé à la chaire de philosophie rationnelle à l'Académie, poste qu'il occupe jusqu'en 1847
+Pendant ses études à Genève, il subit l'influence d'Augustin Pyrame de Candolle et, ce faisant, développa une passion durable pour la botanique. Il fut l'un des principaux contributeurs à la publication de Candolle Prodromus systematis naturalis regni vegetabilis, dont il est l’auteur des chapitres concernant les familles des Marcgraviaceae, Convolvulaceae, Hydroleaceae, Scrophulariaceae, Selaginaceae, Nyctaginaceae , Hypericineae et Guttiferae.
+Le genre botanique Choisya (famille des Rutaceae) est nommé en son honneur.
+En tant que théologien et philosophe, il publie des ouvrages tels que Des doctrines exclusives en philosophie rationnelle (1828) et Les lois morales: Fragment d'un cours de philosophie morale (1836).
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Ouvrages botaniques sélectionnés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prodromus d'une monographie de la famille des Hypéricinées, (9 éditions publiées de 1821 à 1983).
 Descriptions des Hydroléacées, 1830.
 Convolvulaceae orientales, 1834.
-Mémoire sur les familles des Ternstroemiacées et Camelliacées, 1854[6].</t>
+Mémoire sur les familles des Ternstroemiacées et Camelliacées, 1854.</t>
         </is>
       </c>
     </row>
